--- a/VMI.xlsx
+++ b/VMI.xlsx
@@ -1,29 +1,84 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28925"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\corey\github\models\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A6EBF21-7C97-4720-A7B3-B6ACF0C804F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="610" yWindow="720" windowWidth="16430" windowHeight="18320" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="main" sheetId="1" r:id="rId1"/>
+    <sheet name="model" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="8">
+  <si>
+    <t>main</t>
+  </si>
+  <si>
+    <t>Price</t>
+  </si>
+  <si>
+    <t>Cash</t>
+  </si>
+  <si>
+    <t>Debt</t>
+  </si>
+  <si>
+    <t>EV</t>
+  </si>
+  <si>
+    <t>Shares</t>
+  </si>
+  <si>
+    <t>MC</t>
+  </si>
+  <si>
+    <t>Q125</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -46,13 +101,19 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -330,13 +391,101 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C23A2809-7B3F-4BCC-94B2-725A736D4B5C}">
+  <dimension ref="A1:M7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M4" sqref="M4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="12" max="12" width="11.36328125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="K2" t="s">
+        <v>1</v>
+      </c>
+      <c r="L2">
+        <v>367.37</v>
+      </c>
+      <c r="M2" s="4">
+        <v>45874</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="K3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L3" s="3">
+        <v>20.07</v>
+      </c>
+      <c r="M3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="K4" t="s">
+        <v>6</v>
+      </c>
+      <c r="L4" s="2">
+        <f>+L3*L2</f>
+        <v>7373.1158999999998</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="K5" t="s">
+        <v>2</v>
+      </c>
+      <c r="L5" s="2">
+        <v>184.399</v>
+      </c>
+      <c r="M5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="K6" t="s">
+        <v>3</v>
+      </c>
+      <c r="L6" s="2">
+        <v>730.70299999999997</v>
+      </c>
+      <c r="M6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="K7" t="s">
+        <v>4</v>
+      </c>
+      <c r="L7" s="2">
+        <f>+L4-L5+L6</f>
+        <v>7919.419899999999</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A1" location="main!A1" display="main" xr:uid="{8C4C6207-8C8C-4BEE-A652-7415C615A84C}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>